--- a/Config/Excel/GarbageData.xlsx
+++ b/Config/Excel/GarbageData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Biggerlab_Ryan_Git\the-janitor-simulator\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\blcode\the-janitor-simulator\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60588A8-DA2E-4176-B293-8A6D1A51FE2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1601AC9-BB11-4EE0-820B-D0FC306EB918}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Garbage" sheetId="1" r:id="rId1"/>
@@ -23,139 +23,146 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>int</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>垃圾ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>垃圾名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Paper</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Food</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ChewingGum</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Stain</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>废纸</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>食物</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>口香糖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>污渍</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>占用的垃圾袋容量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>消耗的清洁工具清洁度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>清洁需要的时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>needPackage</t>
   </si>
   <si>
     <t>是否需要扔到垃圾袋里</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>pacCapcityCost</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>cleaningTimeNeeded</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>cleaningValueCost</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>需要的清洁工具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ToolNeed</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gloves</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Broom</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Shovel</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mop</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gloves&amp;Rag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mop&amp;Rag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,32 +236,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -604,26 +614,26 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="5" width="26.375" customWidth="1"/>
-    <col min="6" max="6" width="23.75" customWidth="1"/>
-    <col min="7" max="7" width="25.875" customWidth="1"/>
-    <col min="8" max="8" width="23.75" customWidth="1"/>
-    <col min="9" max="9" width="16.375" customWidth="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
-    <col min="11" max="11" width="16.875" customWidth="1"/>
-    <col min="12" max="12" width="15.875" customWidth="1"/>
-    <col min="13" max="13" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="21.21875" customWidth="1"/>
     <col min="14" max="15" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -659,7 +669,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -693,7 +703,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +737,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -747,7 +757,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -767,7 +777,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1001</v>
       </c>
@@ -777,17 +787,17 @@
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2" t="b">
         <v>1</v>
@@ -803,7 +813,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1002</v>
       </c>
@@ -813,17 +823,17 @@
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>28</v>
+      <c r="D7" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="E7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" s="2" t="b">
         <v>1</v>
@@ -839,7 +849,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1003</v>
       </c>
@@ -850,16 +860,16 @@
         <v>14</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8" s="2" t="b">
         <v>1</v>
@@ -875,7 +885,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1004</v>
       </c>
@@ -885,14 +895,14 @@
       <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="2">
         <v>4</v>
@@ -911,7 +921,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -931,7 +941,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -951,7 +961,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -971,7 +981,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -991,7 +1001,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1011,7 +1021,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1031,7 +1041,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1051,7 +1061,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1072,7 +1082,7 @@
       <c r="R17" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Config/Excel/GarbageData.xlsx
+++ b/Config/Excel/GarbageData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\blcode\the-janitor-simulator\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1601AC9-BB11-4EE0-820B-D0FC306EB918}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693D82C7-57A8-4600-804C-EE9D67DFCD8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,142 +20,169 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>int</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>垃圾ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>垃圾名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Paper</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Food</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ChewingGum</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Stain</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>废纸</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>食物</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>口香糖</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>污渍</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>占用的垃圾袋容量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>消耗的清洁工具清洁度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>清洁需要的时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>needPackage</t>
   </si>
   <si>
     <t>是否需要扔到垃圾袋里</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>pacCapcityCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>cleaningTimeNeeded</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>cleaningValueCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>需要的清洁工具</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ToolNeed</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Broom</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Shovel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gloves&amp;Rag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mop&amp;Rag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gloves</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mop</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardboardBox</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   MetalStuff</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属物品</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   GarbageBag</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾袋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gloves</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,33 +263,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -271,6 +301,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -614,7 +647,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -641,22 +674,22 @@
         <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -678,19 +711,19 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -712,7 +745,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
@@ -785,10 +818,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -818,13 +851,13 @@
         <v>1002</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="E7" s="2">
         <v>3</v>
@@ -854,13 +887,13 @@
         <v>1003</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -890,13 +923,13 @@
         <v>1004</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -922,14 +955,30 @@
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="A10" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -942,14 +991,30 @@
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="A11" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1082,7 +1147,7 @@
       <c r="R17" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
